--- a/Correlations/lowPearson.xlsx
+++ b/Correlations/lowPearson.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>keyword</t>
   </si>
@@ -31,244 +31,328 @@
     <t>MG_newDeaths</t>
   </si>
   <si>
+    <t>sintomas do covid</t>
+  </si>
+  <si>
+    <t>covid-19</t>
+  </si>
+  <si>
+    <t>sintomas do covid 19</t>
+  </si>
+  <si>
+    <t>dor de cabeça</t>
+  </si>
+  <si>
+    <t>perda olfato</t>
+  </si>
+  <si>
+    <t>olfato e paladar perda</t>
+  </si>
+  <si>
+    <t>perda de paladar</t>
+  </si>
+  <si>
+    <t>login caixa auxilio emergencial</t>
+  </si>
+  <si>
+    <t>reabertura comercio</t>
+  </si>
+  <si>
+    <t>reabertura shopping</t>
+  </si>
+  <si>
+    <t>plano de reabertura</t>
+  </si>
+  <si>
+    <t>olfato</t>
+  </si>
+  <si>
+    <t>paladar e olfato</t>
+  </si>
+  <si>
+    <t>covid 19 sintomas</t>
+  </si>
+  <si>
+    <t>exame cotonete</t>
+  </si>
+  <si>
+    <t>teste coronavírus</t>
+  </si>
+  <si>
+    <t>termometro digital</t>
+  </si>
+  <si>
+    <t>termometro</t>
+  </si>
+  <si>
+    <t>falta de ar sintomas</t>
+  </si>
+  <si>
+    <t>falta de ar</t>
+  </si>
+  <si>
+    <t>ansiedade</t>
+  </si>
+  <si>
+    <t>cansaço</t>
+  </si>
+  <si>
+    <t>sintomas coronavirus</t>
+  </si>
+  <si>
+    <t>nariz entupido</t>
+  </si>
+  <si>
+    <t>oximetro</t>
+  </si>
+  <si>
+    <t>oximetro de dedo</t>
+  </si>
+  <si>
+    <t>ivermectina coronavírus</t>
+  </si>
+  <si>
+    <t>azitromicina</t>
+  </si>
+  <si>
+    <t>casos novos coronavírus</t>
+  </si>
+  <si>
+    <t>seguro desemprego entrada</t>
+  </si>
+  <si>
+    <t>seguro desemprego emergencial</t>
+  </si>
+  <si>
+    <t>como dar entrada no seguro desemprego</t>
+  </si>
+  <si>
+    <t>auxilio desemprego</t>
+  </si>
+  <si>
+    <t>pico brasil</t>
+  </si>
+  <si>
+    <t>pico coronavírus</t>
+  </si>
+  <si>
+    <t>brasil coronavírus</t>
+  </si>
+  <si>
+    <t>coronavírus brasil pico</t>
+  </si>
+  <si>
+    <t>coronavírus pico brasil</t>
+  </si>
+  <si>
+    <t>pico pandemia</t>
+  </si>
+  <si>
+    <t>pico corona</t>
+  </si>
+  <si>
+    <t>brasil pico da pandemia</t>
+  </si>
+  <si>
+    <t>covid brasil</t>
+  </si>
+  <si>
+    <t>cesta básica</t>
+  </si>
+  <si>
+    <t>cesta básica cras</t>
+  </si>
+  <si>
+    <t>coronavírus grupo de risco</t>
+  </si>
+  <si>
+    <t>grupo de risco covid</t>
+  </si>
+  <si>
+    <t>corona grupo de risco</t>
+  </si>
+  <si>
+    <t>leitos de uti</t>
+  </si>
+  <si>
+    <t>leitos uti brasil</t>
+  </si>
+  <si>
+    <t>fazer máscara</t>
+  </si>
+  <si>
+    <t>máscara</t>
+  </si>
+  <si>
+    <t>máscara tecido</t>
+  </si>
+  <si>
+    <t>como fazer máscara</t>
+  </si>
+  <si>
+    <t>máscara de tecido como fazer</t>
+  </si>
+  <si>
+    <t>máscara proteção</t>
+  </si>
+  <si>
+    <t>máscaras</t>
+  </si>
+  <si>
+    <t>máscara de tecido</t>
+  </si>
+  <si>
+    <t>coronavírus vacina</t>
+  </si>
+  <si>
+    <t>vacina corona</t>
+  </si>
+  <si>
+    <t>vacina china</t>
+  </si>
+  <si>
+    <t>covid 19</t>
+  </si>
+  <si>
+    <t>pcr coronavírus</t>
+  </si>
+  <si>
+    <t>teste rápido coronavírus</t>
+  </si>
+  <si>
+    <t>isolamento social</t>
+  </si>
+  <si>
+    <t>quarentena</t>
+  </si>
+  <si>
+    <t>quarentena dia</t>
+  </si>
+  <si>
+    <t>quarentena brasil</t>
+  </si>
+  <si>
+    <t>fim quarentena</t>
+  </si>
+  <si>
+    <t>coronavírus idosos</t>
+  </si>
+  <si>
+    <t>como funciona lockdown</t>
+  </si>
+  <si>
+    <t>lockdown brasil</t>
+  </si>
+  <si>
+    <t>lockdown covid</t>
+  </si>
+  <si>
+    <t>decreto lockdown</t>
+  </si>
+  <si>
+    <t>brasil coronavírus mortes</t>
+  </si>
+  <si>
+    <t>mortes por coronavírus</t>
+  </si>
+  <si>
+    <t>decreto quarentena</t>
+  </si>
+  <si>
+    <t>coronavírus oms</t>
+  </si>
+  <si>
+    <t>covid 19 oms</t>
+  </si>
+  <si>
+    <t>cloroquina</t>
+  </si>
+  <si>
+    <t>oms coronavírus</t>
+  </si>
+  <si>
+    <t>máscara oms</t>
+  </si>
+  <si>
+    <t>oms brasil coronavírus</t>
+  </si>
+  <si>
+    <t>álcool gel</t>
+  </si>
+  <si>
+    <t>álcool 70</t>
+  </si>
+  <si>
+    <t>coronavírus imunidade</t>
+  </si>
+  <si>
+    <t>respirador mecanico</t>
+  </si>
+  <si>
+    <t>respirador</t>
+  </si>
+  <si>
+    <t>medicamento corona</t>
+  </si>
+  <si>
+    <t>dor de garganta</t>
+  </si>
+  <si>
+    <t>reabertura academias</t>
+  </si>
+  <si>
+    <t>reabertura escolas</t>
+  </si>
+  <si>
+    <t>teste rapido de coronavírus</t>
+  </si>
+  <si>
+    <t>para que serve ivermectina</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>ivermectina covid como tomar</t>
+  </si>
+  <si>
+    <t>taxa de ocupação de leitos</t>
+  </si>
+  <si>
+    <t>teste rápido covid</t>
+  </si>
+  <si>
     <t>covid igg</t>
   </si>
   <si>
     <t>covid igm igg</t>
   </si>
   <si>
-    <t>exame covid</t>
+    <t>teste igg</t>
+  </si>
+  <si>
+    <t>respirador hospitalar</t>
+  </si>
+  <si>
+    <t>teste covid</t>
+  </si>
+  <si>
+    <t>tomar ivermectina</t>
+  </si>
+  <si>
+    <t>igg</t>
+  </si>
+  <si>
+    <t>igm</t>
+  </si>
+  <si>
+    <t>igg igm</t>
   </si>
   <si>
     <t>exame igg</t>
   </si>
   <si>
-    <t>igg igm</t>
-  </si>
-  <si>
-    <t>igg</t>
-  </si>
-  <si>
-    <t>igm</t>
-  </si>
-  <si>
-    <t>ivermectina covid como tomar</t>
-  </si>
-  <si>
-    <t>para que que serve ivermectina</t>
-  </si>
-  <si>
-    <t>plano de reabertura</t>
-  </si>
-  <si>
-    <t>reabertura academias</t>
-  </si>
-  <si>
-    <t>reabertura escolas</t>
-  </si>
-  <si>
-    <t>reabertura shopping</t>
-  </si>
-  <si>
-    <t>reagente igg</t>
-  </si>
-  <si>
-    <t>teste covid</t>
-  </si>
-  <si>
-    <t>teste igg</t>
-  </si>
-  <si>
-    <t>teste rápido covid</t>
-  </si>
-  <si>
-    <t>tomar ivermectina</t>
-  </si>
-  <si>
-    <t>covid pcr</t>
-  </si>
-  <si>
     <t>estou com covid</t>
-  </si>
-  <si>
-    <t>exame cotonete</t>
-  </si>
-  <si>
-    <t>pcr exame covid</t>
-  </si>
-  <si>
-    <t>pcr</t>
-  </si>
-  <si>
-    <t>peguei covid</t>
-  </si>
-  <si>
-    <t>brasil coronavirus</t>
-  </si>
-  <si>
-    <t>corona grupo de risco</t>
-  </si>
-  <si>
-    <t>coronavirus no brasil</t>
-  </si>
-  <si>
-    <t>coronavirus oms</t>
-  </si>
-  <si>
-    <t>medicamento corona</t>
-  </si>
-  <si>
-    <t>medicamento coronavirus</t>
-  </si>
-  <si>
-    <t>oms corona</t>
-  </si>
-  <si>
-    <t>álcool 70</t>
-  </si>
-  <si>
-    <t>álcool gel</t>
-  </si>
-  <si>
-    <t>febre</t>
-  </si>
-  <si>
-    <t>tosse</t>
-  </si>
-  <si>
-    <t>ansiedade</t>
-  </si>
-  <si>
-    <t>auxilio desemprego</t>
-  </si>
-  <si>
-    <t>azitromicina</t>
-  </si>
-  <si>
-    <t>cansaço</t>
-  </si>
-  <si>
-    <t>cloroquina</t>
-  </si>
-  <si>
-    <t>como funciona lockdown</t>
-  </si>
-  <si>
-    <t>coronavirus grupo de risco</t>
-  </si>
-  <si>
-    <t>coronavirus idosos</t>
-  </si>
-  <si>
-    <t>coronavirus imunidade</t>
-  </si>
-  <si>
-    <t>coronavirus vacina</t>
-  </si>
-  <si>
-    <t>covid brasil</t>
-  </si>
-  <si>
-    <t>covid-19</t>
-  </si>
-  <si>
-    <t>covid</t>
-  </si>
-  <si>
-    <t>decreto lockdown</t>
-  </si>
-  <si>
-    <t>dor de cabeça</t>
-  </si>
-  <si>
-    <t>dor de garganta</t>
-  </si>
-  <si>
-    <t>grupo de risco covid</t>
-  </si>
-  <si>
-    <t>ivermectina coronavirus</t>
-  </si>
-  <si>
-    <t>leitos uti brasil</t>
-  </si>
-  <si>
-    <t>lockdown brasil</t>
-  </si>
-  <si>
-    <t>lockdown covid</t>
-  </si>
-  <si>
-    <t>login caixa auxilio emergencial</t>
-  </si>
-  <si>
-    <t>mascara oms</t>
-  </si>
-  <si>
-    <t>nariz entupido</t>
-  </si>
-  <si>
-    <t>olfato e paladar perda</t>
-  </si>
-  <si>
-    <t>olfato</t>
-  </si>
-  <si>
-    <t>oximetro de dedo</t>
-  </si>
-  <si>
-    <t>oximetro</t>
-  </si>
-  <si>
-    <t>paladar e olfato</t>
-  </si>
-  <si>
-    <t>pcr coronavirus</t>
-  </si>
-  <si>
-    <t>perda de paladar</t>
-  </si>
-  <si>
-    <t>perda olfato</t>
-  </si>
-  <si>
-    <t>pico pandemia</t>
-  </si>
-  <si>
-    <t>reabertura comercio</t>
-  </si>
-  <si>
-    <t>respirador hospitalar</t>
-  </si>
-  <si>
-    <t>respirador mecanico</t>
-  </si>
-  <si>
-    <t>seguro desemprego emergencial</t>
-  </si>
-  <si>
-    <t>sintomas coronavirus</t>
-  </si>
-  <si>
-    <t>sintomas do covid 19</t>
-  </si>
-  <si>
-    <t>sintomas do covid</t>
-  </si>
-  <si>
-    <t>taxa de ocupação de leitos</t>
-  </si>
-  <si>
-    <t>teste rapido de coronavirus</t>
-  </si>
-  <si>
-    <t>teste rápido coronavirus</t>
-  </si>
-  <si>
-    <t>vacina china</t>
-  </si>
-  <si>
-    <t>vacina corona</t>
   </si>
 </sst>
 </file>
@@ -626,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,10 +741,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.878742000442236</v>
+        <v>0.2566819710196951</v>
       </c>
       <c r="D2">
-        <v>0.7409837101659369</v>
+        <v>0.2185765743118503</v>
+      </c>
+      <c r="E2">
+        <v>0.1484338717255247</v>
+      </c>
+      <c r="F2">
+        <v>-0.0008586565816418733</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -671,10 +761,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.871033739341847</v>
+        <v>0.1484548199743822</v>
       </c>
       <c r="D3">
-        <v>0.7362521809313467</v>
+        <v>-0.1601805792441357</v>
+      </c>
+      <c r="E3">
+        <v>-0.3465831396437967</v>
+      </c>
+      <c r="F3">
+        <v>-0.265946582915804</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -685,13 +781,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.7119791458716518</v>
+        <v>-0.1228881524779631</v>
       </c>
       <c r="D4">
-        <v>0.8593585306505142</v>
+        <v>-0.2812929944002293</v>
       </c>
       <c r="E4">
-        <v>0.7479291151522643</v>
+        <v>-0.3119756283057426</v>
+      </c>
+      <c r="F4">
+        <v>-0.3596506727402581</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -702,7 +801,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.8000706780900345</v>
+        <v>0.09169381632071003</v>
+      </c>
+      <c r="D5">
+        <v>-0.2379493727635011</v>
+      </c>
+      <c r="E5">
+        <v>-0.4410394012616412</v>
+      </c>
+      <c r="F5">
+        <v>-0.4653243290270792</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -713,10 +821,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.8730348981863357</v>
+        <v>0.4063090596602044</v>
       </c>
       <c r="D6">
-        <v>0.7240431542722598</v>
+        <v>0.1341723440593098</v>
+      </c>
+      <c r="E6">
+        <v>-0.05229957896712752</v>
+      </c>
+      <c r="F6">
+        <v>-0.1434651418181558</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -727,10 +841,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.8818303800175032</v>
+        <v>0.3820931912468201</v>
       </c>
       <c r="D7">
-        <v>0.74917170674512</v>
+        <v>0.03974470611091688</v>
+      </c>
+      <c r="E7">
+        <v>-0.173011947288441</v>
+      </c>
+      <c r="F7">
+        <v>-0.2485192684000875</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -741,10 +861,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.9003139279461155</v>
+        <v>0.4305744004325663</v>
       </c>
       <c r="D8">
-        <v>0.7456899410866701</v>
+        <v>0.1787501528356099</v>
+      </c>
+      <c r="E8">
+        <v>0.01324656685316075</v>
+      </c>
+      <c r="F8">
+        <v>-0.07924046403491024</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -755,10 +881,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0.845849243632589</v>
+        <v>-0.06858816166325617</v>
       </c>
       <c r="D9">
-        <v>0.7957775428550856</v>
+        <v>-0.3051979541761789</v>
+      </c>
+      <c r="E9">
+        <v>-0.3680724899124996</v>
+      </c>
+      <c r="F9">
+        <v>-0.3281960074242404</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -769,7 +901,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.7173086203257535</v>
+        <v>0.3887088469531588</v>
+      </c>
+      <c r="D10">
+        <v>-0.05066156077376487</v>
+      </c>
+      <c r="E10">
+        <v>-0.3468832598268436</v>
+      </c>
+      <c r="F10">
+        <v>-0.3302430830832183</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -780,7 +921,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.7424861598414459</v>
+        <v>0.4446326151660945</v>
+      </c>
+      <c r="D11">
+        <v>0.04287550017729987</v>
+      </c>
+      <c r="E11">
+        <v>-0.2275622527321975</v>
+      </c>
+      <c r="F11">
+        <v>-0.1934800528772961</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -791,7 +941,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0.7559658816952974</v>
+        <v>0.4688391132900612</v>
+      </c>
+      <c r="D12">
+        <v>0.1222565959281485</v>
+      </c>
+      <c r="E12">
+        <v>-0.1440127652802447</v>
+      </c>
+      <c r="F12">
+        <v>-0.1380569507352751</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -802,7 +961,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0.7261954708104643</v>
+        <v>0.4204357643915139</v>
+      </c>
+      <c r="D13">
+        <v>0.185014106005769</v>
+      </c>
+      <c r="E13">
+        <v>0.01730770682012805</v>
+      </c>
+      <c r="F13">
+        <v>-0.09376903083359359</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -813,7 +981,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.7137743658147547</v>
+        <v>0.426978441379108</v>
+      </c>
+      <c r="D14">
+        <v>0.1609614790813496</v>
+      </c>
+      <c r="E14">
+        <v>-0.03012534305444218</v>
+      </c>
+      <c r="F14">
+        <v>-0.1473501570856992</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -824,16 +1001,13 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0.7953752379768579</v>
+        <v>-0.09156955669880638</v>
       </c>
       <c r="D15">
-        <v>0.83875518007481</v>
+        <v>-0.3889438436177706</v>
       </c>
       <c r="E15">
-        <v>0.7762583001720091</v>
-      </c>
-      <c r="F15">
-        <v>0.7291521153830216</v>
+        <v>-0.489301933919908</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -844,10 +1018,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0.7537458364548152</v>
-      </c>
-      <c r="D16">
-        <v>0.7736614491140981</v>
+        <v>0.4758186132200603</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -858,7 +1029,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0.8478460317990307</v>
+        <v>-0.3555530989048158</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -869,7 +1040,10 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0.7749648084439593</v>
+        <v>0.1701805133168331</v>
+      </c>
+      <c r="D18">
+        <v>-0.3001973555845491</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -880,13 +1054,10 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0.8660719810898639</v>
+        <v>0.1386396609977837</v>
       </c>
       <c r="D19">
-        <v>0.8409102192791336</v>
-      </c>
-      <c r="E19">
-        <v>0.7120690989877491</v>
+        <v>-0.3231768140193459</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -896,11 +1067,8 @@
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="D20">
-        <v>0.8863588848128726</v>
-      </c>
-      <c r="E20">
-        <v>0.8075716857450457</v>
+      <c r="C20">
+        <v>-0.3119164449712327</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -910,8 +1078,8 @@
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="D21">
-        <v>0.7430022762093478</v>
+      <c r="C21">
+        <v>-0.3531075972646555</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -921,14 +1089,17 @@
       <c r="B22" t="s">
         <v>25</v>
       </c>
+      <c r="C22">
+        <v>0.2583052926078881</v>
+      </c>
       <c r="D22">
-        <v>0.8651108413496054</v>
+        <v>0.0857674966508233</v>
       </c>
       <c r="E22">
-        <v>0.8903854857263523</v>
+        <v>-0.08570450328751626</v>
       </c>
       <c r="F22">
-        <v>0.7633297254982299</v>
+        <v>-0.1417131261709071</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -938,11 +1109,17 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
+      <c r="C23">
+        <v>-0.1054385200988033</v>
+      </c>
       <c r="D23">
-        <v>0.8793006990879781</v>
+        <v>0.2025277510249378</v>
       </c>
       <c r="E23">
-        <v>0.8060070405407536</v>
+        <v>0.321170730821695</v>
+      </c>
+      <c r="F23">
+        <v>0.1211110105714596</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -952,11 +1129,14 @@
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="D24">
-        <v>0.907559021844549</v>
+      <c r="C24">
+        <v>-0.4964475716602645</v>
       </c>
       <c r="E24">
-        <v>0.8444100888233996</v>
+        <v>-0.4631848445212151</v>
+      </c>
+      <c r="F24">
+        <v>-0.4583123920064496</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -966,11 +1146,17 @@
       <c r="B25" t="s">
         <v>28</v>
       </c>
+      <c r="C25">
+        <v>-0.008049548748339691</v>
+      </c>
       <c r="D25">
-        <v>0.8197463251411996</v>
+        <v>-0.1367150094869787</v>
       </c>
       <c r="E25">
-        <v>0.7524949677173879</v>
+        <v>-0.2228711355610458</v>
+      </c>
+      <c r="F25">
+        <v>-0.2503571003361109</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -980,8 +1166,17 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
+      <c r="C26">
+        <v>0.18597359778755</v>
+      </c>
+      <c r="D26">
+        <v>-0.1200186609180992</v>
+      </c>
       <c r="E26">
-        <v>-0.7121454871406987</v>
+        <v>-0.2536385974721507</v>
+      </c>
+      <c r="F26">
+        <v>-0.2788336642711783</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -991,11 +1186,17 @@
       <c r="B27" t="s">
         <v>30</v>
       </c>
+      <c r="C27">
+        <v>0.1237044123710425</v>
+      </c>
+      <c r="D27">
+        <v>-0.1974116010227292</v>
+      </c>
       <c r="E27">
-        <v>-0.7472459455723246</v>
+        <v>-0.3249683146952079</v>
       </c>
       <c r="F27">
-        <v>-0.7569340707161413</v>
+        <v>-0.3172110651747633</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1005,8 +1206,17 @@
       <c r="B28" t="s">
         <v>31</v>
       </c>
+      <c r="C28">
+        <v>0.2381551486009151</v>
+      </c>
+      <c r="D28">
+        <v>-0.0006800792813243454</v>
+      </c>
       <c r="E28">
-        <v>-0.7119569106005142</v>
+        <v>-0.2175498483502563</v>
+      </c>
+      <c r="F28">
+        <v>-0.2125030250146212</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1016,8 +1226,17 @@
       <c r="B29" t="s">
         <v>32</v>
       </c>
+      <c r="C29">
+        <v>0.3349532585847625</v>
+      </c>
+      <c r="D29">
+        <v>0.05336838309763601</v>
+      </c>
       <c r="E29">
-        <v>-0.7144535483362131</v>
+        <v>-0.1395764858019244</v>
+      </c>
+      <c r="F29">
+        <v>-0.249441153677054</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1027,11 +1246,17 @@
       <c r="B30" t="s">
         <v>33</v>
       </c>
+      <c r="C30">
+        <v>-0.4647559290857915</v>
+      </c>
+      <c r="D30">
+        <v>-0.4987814853391732</v>
+      </c>
       <c r="E30">
-        <v>-0.720708156800972</v>
+        <v>-0.4666576418282596</v>
       </c>
       <c r="F30">
-        <v>-0.7437737509543705</v>
+        <v>-0.4455509695066996</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1041,8 +1266,8 @@
       <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="E31">
-        <v>-0.7031682062064951</v>
+      <c r="C31">
+        <v>-0.1753567983172218</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1052,11 +1277,17 @@
       <c r="B32" t="s">
         <v>35</v>
       </c>
+      <c r="C32">
+        <v>0.135061761612136</v>
+      </c>
+      <c r="D32">
+        <v>-0.2368040363023692</v>
+      </c>
       <c r="E32">
-        <v>-0.7322919857358914</v>
+        <v>-0.3952631911689382</v>
       </c>
       <c r="F32">
-        <v>-0.7398555439957212</v>
+        <v>-0.3153435005050688</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1066,11 +1297,11 @@
       <c r="B33" t="s">
         <v>36</v>
       </c>
-      <c r="E33">
-        <v>-0.7568797551641043</v>
-      </c>
-      <c r="F33">
-        <v>-0.759501318913578</v>
+      <c r="C33">
+        <v>-0.1021422331375559</v>
+      </c>
+      <c r="D33">
+        <v>-0.4495282767904777</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1080,8 +1311,17 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
+      <c r="C34">
+        <v>-0.07543828373366389</v>
+      </c>
+      <c r="D34">
+        <v>-0.3642433947113934</v>
+      </c>
       <c r="E34">
-        <v>-0.7097269059286252</v>
+        <v>-0.4545320675187658</v>
+      </c>
+      <c r="F34">
+        <v>-0.3768009957813702</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1091,8 +1331,8 @@
       <c r="B35" t="s">
         <v>38</v>
       </c>
-      <c r="F35">
-        <v>-0.7951054974980791</v>
+      <c r="C35">
+        <v>-0.2105758377011795</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1102,8 +1342,8 @@
       <c r="B36" t="s">
         <v>39</v>
       </c>
-      <c r="F36">
-        <v>-0.7395607830381649</v>
+      <c r="C36">
+        <v>-0.207416589664629</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1113,6 +1353,9 @@
       <c r="B37" t="s">
         <v>40</v>
       </c>
+      <c r="C37">
+        <v>-0.4986258549625482</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
@@ -1121,6 +1364,9 @@
       <c r="B38" t="s">
         <v>41</v>
       </c>
+      <c r="C38">
+        <v>-0.2213205704392623</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
@@ -1129,6 +1375,9 @@
       <c r="B39" t="s">
         <v>42</v>
       </c>
+      <c r="C39">
+        <v>-0.2213205704392623</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
@@ -1137,6 +1386,15 @@
       <c r="B40" t="s">
         <v>43</v>
       </c>
+      <c r="C40">
+        <v>0.2328709151181343</v>
+      </c>
+      <c r="D40">
+        <v>-0.2627099745013283</v>
+      </c>
+      <c r="F40">
+        <v>-0.4954587665717967</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
@@ -1145,6 +1403,9 @@
       <c r="B41" t="s">
         <v>44</v>
       </c>
+      <c r="C41">
+        <v>-0.4975570115438378</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
@@ -1153,6 +1414,12 @@
       <c r="B42" t="s">
         <v>45</v>
       </c>
+      <c r="C42">
+        <v>0.2136432106477168</v>
+      </c>
+      <c r="D42">
+        <v>-0.2950334394849239</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
@@ -1161,6 +1428,18 @@
       <c r="B43" t="s">
         <v>46</v>
       </c>
+      <c r="C43">
+        <v>0.196519217676026</v>
+      </c>
+      <c r="D43">
+        <v>-0.2103415475801034</v>
+      </c>
+      <c r="E43">
+        <v>-0.4209358472344119</v>
+      </c>
+      <c r="F43">
+        <v>-0.4335845594839081</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
@@ -1169,6 +1448,12 @@
       <c r="B44" t="s">
         <v>47</v>
       </c>
+      <c r="C44">
+        <v>-0.1429971186640538</v>
+      </c>
+      <c r="D44">
+        <v>-0.4404824480744316</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
@@ -1177,6 +1462,15 @@
       <c r="B45" t="s">
         <v>48</v>
       </c>
+      <c r="C45">
+        <v>0.04785386610937125</v>
+      </c>
+      <c r="D45">
+        <v>-0.3488723544485576</v>
+      </c>
+      <c r="F45">
+        <v>-0.4758059163029048</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
@@ -1185,6 +1479,15 @@
       <c r="B46" t="s">
         <v>49</v>
       </c>
+      <c r="C46">
+        <v>-0.4399087064029455</v>
+      </c>
+      <c r="E46">
+        <v>-0.4761961067038283</v>
+      </c>
+      <c r="F46">
+        <v>-0.4499452990798454</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
@@ -1193,6 +1496,18 @@
       <c r="B47" t="s">
         <v>50</v>
       </c>
+      <c r="C47">
+        <v>0.1296318469364615</v>
+      </c>
+      <c r="D47">
+        <v>-0.2336068373212906</v>
+      </c>
+      <c r="E47">
+        <v>-0.4062640463276745</v>
+      </c>
+      <c r="F47">
+        <v>-0.3543575676330037</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
@@ -1201,269 +1516,910 @@
       <c r="B48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>-0.4464791320520665</v>
+      </c>
+      <c r="D48">
+        <v>-0.4511177005099086</v>
+      </c>
+      <c r="E48">
+        <v>-0.3948798669098901</v>
+      </c>
+      <c r="F48">
+        <v>-0.3848233166190496</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>-0.3019861153795143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>-0.4528068469373975</v>
+      </c>
+      <c r="E50">
+        <v>-0.4597048383751316</v>
+      </c>
+      <c r="F50">
+        <v>-0.4524096553260383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>-0.3632417719433857</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>-0.1984150651433266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>-0.3429513098845722</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>-0.3505733926693451</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>-0.3942635409310686</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>-0.3885593563842103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>-0.1691130855450161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>-0.3479416244802402</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>0.03473082906974935</v>
+      </c>
+      <c r="D59">
+        <v>-0.2994396143815214</v>
+      </c>
+      <c r="E59">
+        <v>-0.4387351529409921</v>
+      </c>
+      <c r="F59">
+        <v>-0.4087264453326695</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>-0.3966624873828701</v>
+      </c>
+      <c r="D60">
+        <v>-0.4286965382514786</v>
+      </c>
+      <c r="E60">
+        <v>-0.3850813035116341</v>
+      </c>
+      <c r="F60">
+        <v>-0.3988005274451319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>-0.2708006677394302</v>
+      </c>
+      <c r="D61">
+        <v>-0.168235520497138</v>
+      </c>
+      <c r="E61">
+        <v>-0.09744206561740544</v>
+      </c>
+      <c r="F61">
+        <v>-0.1559218638793623</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>-0.1016100965995237</v>
+      </c>
+      <c r="D62">
+        <v>-0.4451128315025339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>0.05901433266902293</v>
+      </c>
+      <c r="D63">
+        <v>-0.06159886812240477</v>
+      </c>
+      <c r="E63">
+        <v>-0.04190072214942197</v>
+      </c>
+      <c r="F63">
+        <v>-0.1301093622571042</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>-0.02077532619928336</v>
+      </c>
+      <c r="D64">
+        <v>-0.3119676882198937</v>
+      </c>
+      <c r="E64">
+        <v>-0.4548268933775566</v>
+      </c>
+      <c r="F64">
+        <v>-0.4101158274566001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>-0.09134800493459941</v>
+      </c>
+      <c r="D65">
+        <v>-0.4959614517581958</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>-0.3670055982836068</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>-0.2634424043821597</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <v>-0.4727570255952377</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <v>-0.272001880352208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>-0.4845839312210836</v>
+      </c>
+      <c r="D70">
+        <v>-0.4983134955362705</v>
+      </c>
+      <c r="E70">
+        <v>-0.4460732644850968</v>
+      </c>
+      <c r="F70">
+        <v>-0.4350276347907145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>0.01456452307044435</v>
+      </c>
+      <c r="D71">
+        <v>-0.1713143571254502</v>
+      </c>
+      <c r="E71">
+        <v>-0.2225904129847052</v>
+      </c>
+      <c r="F71">
+        <v>-0.2135187075901914</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <v>0.06246190654843093</v>
+      </c>
+      <c r="D72">
+        <v>-0.1981983662703126</v>
+      </c>
+      <c r="E72">
+        <v>-0.3139979048017295</v>
+      </c>
+      <c r="F72">
+        <v>-0.3629107135728855</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <v>0.1896500779261776</v>
+      </c>
+      <c r="D73">
+        <v>0.002612536819551082</v>
+      </c>
+      <c r="E73">
+        <v>-0.1132853600677843</v>
+      </c>
+      <c r="F73">
+        <v>-0.1992826362556439</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <v>0.3773333857706584</v>
+      </c>
+      <c r="D74">
+        <v>0.02625196913496005</v>
+      </c>
+      <c r="E74">
+        <v>-0.1968226059689033</v>
+      </c>
+      <c r="F74">
+        <v>-0.2234046847680668</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <v>-0.3119717411749695</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <v>-0.3600352940207965</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <v>-0.4333886985691264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78">
+        <v>-0.3531426624059388</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79">
+        <v>-0.2431949995886313</v>
+      </c>
+      <c r="D79">
+        <v>-0.459469440149796</v>
+      </c>
+      <c r="F79">
+        <v>-0.4969437627254271</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80">
+        <v>-0.04412693457249178</v>
+      </c>
+      <c r="D80">
+        <v>-0.3613914660830131</v>
+      </c>
+      <c r="E80">
+        <v>-0.487647652562284</v>
+      </c>
+      <c r="F80">
+        <v>-0.444004736982319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>84</v>
+      </c>
+      <c r="C81">
+        <v>-0.3531426624059388</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82">
+        <v>0.1174930664091075</v>
+      </c>
+      <c r="D82">
+        <v>-0.1909823459397437</v>
+      </c>
+      <c r="E82">
+        <v>-0.3462275019794253</v>
+      </c>
+      <c r="F82">
+        <v>-0.3052540195672103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83">
+        <v>-0.1710791172024415</v>
+      </c>
+      <c r="D83">
+        <v>-0.4399620831170008</v>
+      </c>
+      <c r="F83">
+        <v>-0.4950707645381137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84">
+        <v>-0.4141863307750264</v>
+      </c>
+      <c r="D84">
+        <v>-0.4022061577921998</v>
+      </c>
+      <c r="E84">
+        <v>-0.3468106886473026</v>
+      </c>
+      <c r="F84">
+        <v>-0.3376829888999436</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85">
+        <v>-0.4409448553384315</v>
+      </c>
+      <c r="D85">
+        <v>-0.440758821493398</v>
+      </c>
+      <c r="E85">
+        <v>-0.3868700354542928</v>
+      </c>
+      <c r="F85">
+        <v>-0.377539441799234</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86">
+        <v>-0.4319474825512455</v>
+      </c>
+      <c r="E86">
+        <v>-0.4965553179672429</v>
+      </c>
+      <c r="F86">
+        <v>-0.4733886345924703</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87">
+        <v>-0.4574342572450332</v>
+      </c>
+      <c r="F87">
+        <v>-0.4912404064524604</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88">
+        <v>-0.4630213108239714</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89">
+        <v>-0.4964299209395453</v>
+      </c>
+      <c r="E89">
+        <v>-0.477572385340218</v>
+      </c>
+      <c r="F89">
+        <v>-0.4684031885775773</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90">
+        <v>-0.4938568376278145</v>
+      </c>
+      <c r="E90">
+        <v>-0.4236859619855775</v>
+      </c>
+      <c r="F90">
+        <v>-0.4814316576078645</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91">
+        <v>0.2858947922590056</v>
+      </c>
+      <c r="E91">
+        <v>0.04517490509187547</v>
+      </c>
+      <c r="F91">
+        <v>0.07491408739387083</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92">
+        <v>0.3242282205135024</v>
+      </c>
+      <c r="E92">
+        <v>0.0759263286330342</v>
+      </c>
+      <c r="F92">
+        <v>0.2182097220601758</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93">
+        <v>0.2186162268988047</v>
+      </c>
+      <c r="E93">
+        <v>-0.00582025645762451</v>
+      </c>
+      <c r="F93">
+        <v>-0.01290022401446422</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94">
+        <v>0.3338756175007871</v>
+      </c>
+      <c r="E94">
+        <v>0.1125626057304834</v>
+      </c>
+      <c r="F94">
+        <v>0.1126694739442977</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95">
+        <v>0.33271471587803</v>
+      </c>
+      <c r="E95">
+        <v>0.1278520282316783</v>
+      </c>
+      <c r="F95">
+        <v>0.002399499916820299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="E96">
+        <v>0.4463510518016428</v>
+      </c>
+      <c r="F96">
+        <v>0.3438637475607192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="E97">
+        <v>0.3313376951837507</v>
+      </c>
+      <c r="F97">
+        <v>0.4357275691820823</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="E98">
+        <v>0.4476601445358002</v>
+      </c>
+      <c r="F98">
+        <v>0.3054839753980894</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="E99">
+        <v>0.4995503371427528</v>
+      </c>
+      <c r="F99">
+        <v>0.3998882424345206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="E100">
+        <v>0.4789087700440692</v>
+      </c>
+      <c r="F100">
+        <v>0.3888091385148889</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="E101">
+        <v>0.3923457508407083</v>
+      </c>
+      <c r="F101">
+        <v>0.3355902874135379</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="E102">
+        <v>-0.4607001500150318</v>
+      </c>
+      <c r="F102">
+        <v>-0.4436634375778132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="F103">
+        <v>0.4517677189673752</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="F104">
+        <v>0.4322645985649853</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105">
+        <v>0.4411613116008565</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+      <c r="F106">
+        <v>0.4613759198353449</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="F107">
+        <v>0.478886004791966</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="F108">
+        <v>0.4455375950744442</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="F109">
+        <v>0.4359921314592379</v>
       </c>
     </row>
   </sheetData>

--- a/Correlations/lowPearson.xlsx
+++ b/Correlations/lowPearson.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>keyword</t>
   </si>
@@ -61,252 +61,258 @@
     <t>reabertura shopping</t>
   </si>
   <si>
+    <t>olfato</t>
+  </si>
+  <si>
+    <t>paladar e olfato</t>
+  </si>
+  <si>
+    <t>covid 19 sintomas</t>
+  </si>
+  <si>
+    <t>exame cotonete</t>
+  </si>
+  <si>
+    <t>teste coronavírus</t>
+  </si>
+  <si>
+    <t>teste rapido de coronavírus</t>
+  </si>
+  <si>
+    <t>termometro digital</t>
+  </si>
+  <si>
+    <t>termometro</t>
+  </si>
+  <si>
+    <t>falta de ar sintomas</t>
+  </si>
+  <si>
+    <t>falta de ar</t>
+  </si>
+  <si>
+    <t>ansiedade</t>
+  </si>
+  <si>
+    <t>cansaço</t>
+  </si>
+  <si>
+    <t>sintomas coronavirus</t>
+  </si>
+  <si>
+    <t>nariz entupido</t>
+  </si>
+  <si>
+    <t>oximetro</t>
+  </si>
+  <si>
+    <t>oximetro de dedo</t>
+  </si>
+  <si>
+    <t>ivermectina coronavírus</t>
+  </si>
+  <si>
+    <t>azitromicina</t>
+  </si>
+  <si>
+    <t>casos novos coronavírus</t>
+  </si>
+  <si>
+    <t>seguro desemprego entrada</t>
+  </si>
+  <si>
+    <t>seguro desemprego emergencial</t>
+  </si>
+  <si>
+    <t>como dar entrada no seguro desemprego</t>
+  </si>
+  <si>
+    <t>auxilio desemprego</t>
+  </si>
+  <si>
+    <t>pico brasil</t>
+  </si>
+  <si>
+    <t>pico coronavírus</t>
+  </si>
+  <si>
+    <t>coronavírus brasil pico</t>
+  </si>
+  <si>
+    <t>coronavírus pico brasil</t>
+  </si>
+  <si>
+    <t>pico pandemia</t>
+  </si>
+  <si>
+    <t>pico corona</t>
+  </si>
+  <si>
+    <t>brasil pico da pandemia</t>
+  </si>
+  <si>
+    <t>covid brasil</t>
+  </si>
+  <si>
+    <t>cesta básica</t>
+  </si>
+  <si>
+    <t>cesta básica cras</t>
+  </si>
+  <si>
+    <t>coronavírus grupo de risco</t>
+  </si>
+  <si>
+    <t>grupo de risco covid</t>
+  </si>
+  <si>
+    <t>corona grupo de risco</t>
+  </si>
+  <si>
+    <t>leitos de uti</t>
+  </si>
+  <si>
+    <t>leitos uti brasil</t>
+  </si>
+  <si>
+    <t>fazer máscara</t>
+  </si>
+  <si>
+    <t>máscara</t>
+  </si>
+  <si>
+    <t>máscara tecido</t>
+  </si>
+  <si>
+    <t>como fazer máscara</t>
+  </si>
+  <si>
+    <t>máscara de tecido como fazer</t>
+  </si>
+  <si>
+    <t>máscara proteção</t>
+  </si>
+  <si>
+    <t>máscaras</t>
+  </si>
+  <si>
+    <t>máscara de tecido</t>
+  </si>
+  <si>
+    <t>coronavírus vacina</t>
+  </si>
+  <si>
+    <t>vacina corona</t>
+  </si>
+  <si>
+    <t>vacina china</t>
+  </si>
+  <si>
+    <t>covid 19</t>
+  </si>
+  <si>
+    <t>pcr coronavírus</t>
+  </si>
+  <si>
+    <t>teste rápido coronavírus</t>
+  </si>
+  <si>
+    <t>isolamento social</t>
+  </si>
+  <si>
+    <t>quarentena</t>
+  </si>
+  <si>
+    <t>quarentena dia</t>
+  </si>
+  <si>
+    <t>quarentena brasil</t>
+  </si>
+  <si>
+    <t>fim quarentena</t>
+  </si>
+  <si>
+    <t>coronavírus idosos</t>
+  </si>
+  <si>
+    <t>como funciona lockdown</t>
+  </si>
+  <si>
+    <t>lockdown brasil</t>
+  </si>
+  <si>
+    <t>lockdown covid</t>
+  </si>
+  <si>
+    <t>decreto lockdown</t>
+  </si>
+  <si>
+    <t>brasil coronavírus mortes</t>
+  </si>
+  <si>
+    <t>mortes por coronavírus</t>
+  </si>
+  <si>
+    <t>decreto quarentena</t>
+  </si>
+  <si>
+    <t>coronavírus oms</t>
+  </si>
+  <si>
+    <t>oms corona</t>
+  </si>
+  <si>
+    <t>covid 19 oms</t>
+  </si>
+  <si>
+    <t>cloroquina</t>
+  </si>
+  <si>
+    <t>oms coronavírus</t>
+  </si>
+  <si>
+    <t>máscara oms</t>
+  </si>
+  <si>
+    <t>oms brasil coronavírus</t>
+  </si>
+  <si>
+    <t>álcool gel</t>
+  </si>
+  <si>
+    <t>álcool 70</t>
+  </si>
+  <si>
+    <t>coronavírus imunidade</t>
+  </si>
+  <si>
+    <t>respirador mecanico</t>
+  </si>
+  <si>
+    <t>respirador</t>
+  </si>
+  <si>
+    <t>respirador hospitalar</t>
+  </si>
+  <si>
+    <t>medicamento coronavírus</t>
+  </si>
+  <si>
+    <t>medicamento corona</t>
+  </si>
+  <si>
+    <t>dor de garganta</t>
+  </si>
+  <si>
+    <t>reabertura academias</t>
+  </si>
+  <si>
+    <t>reabertura escolas</t>
+  </si>
+  <si>
     <t>plano de reabertura</t>
   </si>
   <si>
-    <t>olfato</t>
-  </si>
-  <si>
-    <t>paladar e olfato</t>
-  </si>
-  <si>
-    <t>covid 19 sintomas</t>
-  </si>
-  <si>
-    <t>exame cotonete</t>
-  </si>
-  <si>
-    <t>teste coronavírus</t>
-  </si>
-  <si>
-    <t>termometro digital</t>
-  </si>
-  <si>
-    <t>termometro</t>
-  </si>
-  <si>
-    <t>falta de ar sintomas</t>
-  </si>
-  <si>
-    <t>falta de ar</t>
-  </si>
-  <si>
-    <t>ansiedade</t>
-  </si>
-  <si>
-    <t>cansaço</t>
-  </si>
-  <si>
-    <t>sintomas coronavirus</t>
-  </si>
-  <si>
-    <t>nariz entupido</t>
-  </si>
-  <si>
-    <t>oximetro</t>
-  </si>
-  <si>
-    <t>oximetro de dedo</t>
-  </si>
-  <si>
-    <t>ivermectina coronavírus</t>
-  </si>
-  <si>
-    <t>azitromicina</t>
-  </si>
-  <si>
-    <t>casos novos coronavírus</t>
-  </si>
-  <si>
-    <t>seguro desemprego entrada</t>
-  </si>
-  <si>
-    <t>seguro desemprego emergencial</t>
-  </si>
-  <si>
-    <t>como dar entrada no seguro desemprego</t>
-  </si>
-  <si>
-    <t>auxilio desemprego</t>
-  </si>
-  <si>
-    <t>pico brasil</t>
-  </si>
-  <si>
-    <t>pico coronavírus</t>
-  </si>
-  <si>
-    <t>brasil coronavírus</t>
-  </si>
-  <si>
-    <t>coronavírus brasil pico</t>
-  </si>
-  <si>
-    <t>coronavírus pico brasil</t>
-  </si>
-  <si>
-    <t>pico pandemia</t>
-  </si>
-  <si>
-    <t>pico corona</t>
-  </si>
-  <si>
-    <t>brasil pico da pandemia</t>
-  </si>
-  <si>
-    <t>covid brasil</t>
-  </si>
-  <si>
-    <t>cesta básica</t>
-  </si>
-  <si>
-    <t>cesta básica cras</t>
-  </si>
-  <si>
-    <t>coronavírus grupo de risco</t>
-  </si>
-  <si>
-    <t>grupo de risco covid</t>
-  </si>
-  <si>
-    <t>corona grupo de risco</t>
-  </si>
-  <si>
-    <t>leitos de uti</t>
-  </si>
-  <si>
-    <t>leitos uti brasil</t>
-  </si>
-  <si>
-    <t>fazer máscara</t>
-  </si>
-  <si>
-    <t>máscara</t>
-  </si>
-  <si>
-    <t>máscara tecido</t>
-  </si>
-  <si>
-    <t>como fazer máscara</t>
-  </si>
-  <si>
-    <t>máscara de tecido como fazer</t>
-  </si>
-  <si>
-    <t>máscara proteção</t>
-  </si>
-  <si>
-    <t>máscaras</t>
-  </si>
-  <si>
-    <t>máscara de tecido</t>
-  </si>
-  <si>
-    <t>coronavírus vacina</t>
-  </si>
-  <si>
-    <t>vacina corona</t>
-  </si>
-  <si>
-    <t>vacina china</t>
-  </si>
-  <si>
-    <t>covid 19</t>
-  </si>
-  <si>
-    <t>pcr coronavírus</t>
-  </si>
-  <si>
-    <t>teste rápido coronavírus</t>
-  </si>
-  <si>
-    <t>isolamento social</t>
-  </si>
-  <si>
-    <t>quarentena</t>
-  </si>
-  <si>
-    <t>quarentena dia</t>
-  </si>
-  <si>
-    <t>quarentena brasil</t>
-  </si>
-  <si>
-    <t>fim quarentena</t>
-  </si>
-  <si>
-    <t>coronavírus idosos</t>
-  </si>
-  <si>
-    <t>como funciona lockdown</t>
-  </si>
-  <si>
-    <t>lockdown brasil</t>
-  </si>
-  <si>
-    <t>lockdown covid</t>
-  </si>
-  <si>
-    <t>decreto lockdown</t>
-  </si>
-  <si>
-    <t>brasil coronavírus mortes</t>
-  </si>
-  <si>
-    <t>mortes por coronavírus</t>
-  </si>
-  <si>
-    <t>decreto quarentena</t>
-  </si>
-  <si>
-    <t>coronavírus oms</t>
-  </si>
-  <si>
-    <t>covid 19 oms</t>
-  </si>
-  <si>
-    <t>cloroquina</t>
-  </si>
-  <si>
-    <t>oms coronavírus</t>
-  </si>
-  <si>
-    <t>máscara oms</t>
-  </si>
-  <si>
-    <t>oms brasil coronavírus</t>
-  </si>
-  <si>
-    <t>álcool gel</t>
-  </si>
-  <si>
-    <t>álcool 70</t>
-  </si>
-  <si>
-    <t>coronavírus imunidade</t>
-  </si>
-  <si>
-    <t>respirador mecanico</t>
-  </si>
-  <si>
-    <t>respirador</t>
-  </si>
-  <si>
-    <t>medicamento corona</t>
-  </si>
-  <si>
-    <t>dor de garganta</t>
-  </si>
-  <si>
-    <t>reabertura academias</t>
-  </si>
-  <si>
-    <t>reabertura escolas</t>
-  </si>
-  <si>
-    <t>teste rapido de coronavírus</t>
-  </si>
-  <si>
     <t>para que serve ivermectina</t>
   </si>
   <si>
@@ -325,31 +331,28 @@
     <t>covid igg</t>
   </si>
   <si>
+    <t>teste igg</t>
+  </si>
+  <si>
+    <t>exame igg</t>
+  </si>
+  <si>
+    <t>teste covid</t>
+  </si>
+  <si>
+    <t>tomar ivermectina</t>
+  </si>
+  <si>
+    <t>igg</t>
+  </si>
+  <si>
+    <t>igm</t>
+  </si>
+  <si>
+    <t>igg igm</t>
+  </si>
+  <si>
     <t>covid igm igg</t>
-  </si>
-  <si>
-    <t>teste igg</t>
-  </si>
-  <si>
-    <t>respirador hospitalar</t>
-  </si>
-  <si>
-    <t>teste covid</t>
-  </si>
-  <si>
-    <t>tomar ivermectina</t>
-  </si>
-  <si>
-    <t>igg</t>
-  </si>
-  <si>
-    <t>igm</t>
-  </si>
-  <si>
-    <t>igg igm</t>
-  </si>
-  <si>
-    <t>exame igg</t>
   </si>
   <si>
     <t>estou com covid</t>
@@ -710,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -741,16 +744,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.2566819710196951</v>
+        <v>0.2404285499389834</v>
       </c>
       <c r="D2">
-        <v>0.2185765743118503</v>
+        <v>0.2035349521324251</v>
       </c>
       <c r="E2">
-        <v>0.1484338717255247</v>
+        <v>0.1435093315262921</v>
       </c>
       <c r="F2">
-        <v>-0.0008586565816418733</v>
+        <v>-0.001885101658516001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -761,16 +764,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.1484548199743822</v>
+        <v>0.1454580468389549</v>
       </c>
       <c r="D3">
-        <v>-0.1601805792441357</v>
+        <v>-0.1706861490597916</v>
       </c>
       <c r="E3">
-        <v>-0.3465831396437967</v>
+        <v>-0.3587019773240596</v>
       </c>
       <c r="F3">
-        <v>-0.265946582915804</v>
+        <v>-0.2782985301906956</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -781,16 +784,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>-0.1228881524779631</v>
+        <v>-0.1142003525236865</v>
       </c>
       <c r="D4">
-        <v>-0.2812929944002293</v>
+        <v>-0.2780133893712556</v>
       </c>
       <c r="E4">
-        <v>-0.3119756283057426</v>
+        <v>-0.3113609914257439</v>
       </c>
       <c r="F4">
-        <v>-0.3596506727402581</v>
+        <v>-0.3465351187344451</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -801,16 +804,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.09169381632071003</v>
+        <v>0.1516817329539684</v>
       </c>
       <c r="D5">
-        <v>-0.2379493727635011</v>
+        <v>-0.1821369891584647</v>
       </c>
       <c r="E5">
-        <v>-0.4410394012616412</v>
+        <v>-0.4139480961616126</v>
       </c>
       <c r="F5">
-        <v>-0.4653243290270792</v>
+        <v>-0.4402372501493869</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -821,16 +824,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.4063090596602044</v>
+        <v>0.3614201683112023</v>
       </c>
       <c r="D6">
-        <v>0.1341723440593098</v>
+        <v>0.09200997630783961</v>
       </c>
       <c r="E6">
-        <v>-0.05229957896712752</v>
+        <v>-0.07731321759603178</v>
       </c>
       <c r="F6">
-        <v>-0.1434651418181558</v>
+        <v>-0.1591106139729946</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -841,16 +844,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.3820931912468201</v>
+        <v>0.3579940930292577</v>
       </c>
       <c r="D7">
-        <v>0.03974470611091688</v>
+        <v>0.05527512800132067</v>
       </c>
       <c r="E7">
-        <v>-0.173011947288441</v>
+        <v>-0.1051779115298776</v>
       </c>
       <c r="F7">
-        <v>-0.2485192684000875</v>
+        <v>-0.1927671065318729</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -861,16 +864,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.4305744004325663</v>
+        <v>0.4269480253013703</v>
       </c>
       <c r="D8">
-        <v>0.1787501528356099</v>
+        <v>0.1288431430701164</v>
       </c>
       <c r="E8">
-        <v>0.01324656685316075</v>
+        <v>-0.0463851705838185</v>
       </c>
       <c r="F8">
-        <v>-0.07924046403491024</v>
+        <v>-0.1388404972086288</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -881,16 +884,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>-0.06858816166325617</v>
+        <v>-0.06306657319299425</v>
       </c>
       <c r="D9">
-        <v>-0.3051979541761789</v>
+        <v>-0.2872686521304431</v>
       </c>
       <c r="E9">
-        <v>-0.3680724899124996</v>
+        <v>-0.3451465799885011</v>
       </c>
       <c r="F9">
-        <v>-0.3281960074242404</v>
+        <v>-0.3079576011392849</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -901,16 +904,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.3887088469531588</v>
+        <v>0.3784713175675939</v>
       </c>
       <c r="D10">
-        <v>-0.05066156077376487</v>
+        <v>-0.05954017812567328</v>
       </c>
       <c r="E10">
-        <v>-0.3468832598268436</v>
+        <v>-0.3538943492814225</v>
       </c>
       <c r="F10">
-        <v>-0.3302430830832183</v>
+        <v>-0.3438580793769442</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -921,16 +924,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.4446326151660945</v>
+        <v>0.4343219843965387</v>
       </c>
       <c r="D11">
-        <v>0.04287550017729987</v>
+        <v>0.05504440286554402</v>
       </c>
       <c r="E11">
-        <v>-0.2275622527321975</v>
+        <v>-0.2130671959625258</v>
       </c>
       <c r="F11">
-        <v>-0.1934800528772961</v>
+        <v>-0.188066670058054</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -941,16 +944,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0.4688391132900612</v>
+        <v>0.4467821207338924</v>
       </c>
       <c r="D12">
-        <v>0.1222565959281485</v>
+        <v>0.2126211636470842</v>
       </c>
       <c r="E12">
-        <v>-0.1440127652802447</v>
+        <v>0.0289061825081897</v>
       </c>
       <c r="F12">
-        <v>-0.1380569507352751</v>
+        <v>-0.08954271513766562</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -961,16 +964,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0.4204357643915139</v>
+        <v>0.3593711128941885</v>
       </c>
       <c r="D13">
-        <v>0.185014106005769</v>
+        <v>0.08234978954701773</v>
       </c>
       <c r="E13">
-        <v>0.01730770682012805</v>
+        <v>-0.1090792744909501</v>
       </c>
       <c r="F13">
-        <v>-0.09376903083359359</v>
+        <v>-0.21804545598548</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -981,16 +984,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.426978441379108</v>
+        <v>-0.09071963891432915</v>
       </c>
       <c r="D14">
-        <v>0.1609614790813496</v>
+        <v>-0.3874503285350524</v>
       </c>
       <c r="E14">
-        <v>-0.03012534305444218</v>
-      </c>
-      <c r="F14">
-        <v>-0.1473501570856992</v>
+        <v>-0.4878206078005795</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1001,13 +1001,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>-0.09156955669880638</v>
-      </c>
-      <c r="D15">
-        <v>-0.3889438436177706</v>
-      </c>
-      <c r="E15">
-        <v>-0.489301933919908</v>
+        <v>0.4880055168157167</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1018,7 +1012,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0.4758186132200603</v>
+        <v>-0.3301047491295976</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1029,7 +1023,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>-0.3555530989048158</v>
+        <v>0.1217928437150397</v>
+      </c>
+      <c r="D17">
+        <v>0.03735989135041261</v>
+      </c>
+      <c r="E17">
+        <v>-0.0425193203974565</v>
+      </c>
+      <c r="F17">
+        <v>-0.05919269897988438</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1040,10 +1043,10 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0.1701805133168331</v>
+        <v>0.1319258084176486</v>
       </c>
       <c r="D18">
-        <v>-0.3001973555845491</v>
+        <v>-0.3332817450075337</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1054,10 +1057,10 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0.1386396609977837</v>
+        <v>0.1353151926437354</v>
       </c>
       <c r="D19">
-        <v>-0.3231768140193459</v>
+        <v>-0.331783455006851</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1068,7 +1071,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>-0.3119164449712327</v>
+        <v>-0.3398630413067771</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1079,7 +1082,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>-0.3531075972646555</v>
+        <v>-0.3457931092854389</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1090,16 +1093,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>0.2583052926078881</v>
+        <v>0.2284856454088298</v>
       </c>
       <c r="D22">
-        <v>0.0857674966508233</v>
+        <v>0.07679407734016623</v>
       </c>
       <c r="E22">
-        <v>-0.08570450328751626</v>
+        <v>-0.05604904906422194</v>
       </c>
       <c r="F22">
-        <v>-0.1417131261709071</v>
+        <v>-0.09271833987137208</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1110,16 +1113,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>-0.1054385200988033</v>
+        <v>-0.05682168302148051</v>
       </c>
       <c r="D23">
-        <v>0.2025277510249378</v>
+        <v>0.233747806161343</v>
       </c>
       <c r="E23">
-        <v>0.321170730821695</v>
+        <v>0.3690016552841519</v>
       </c>
       <c r="F23">
-        <v>0.1211110105714596</v>
+        <v>0.2060442951696536</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1130,13 +1133,13 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>-0.4964475716602645</v>
+        <v>-0.4960611260704514</v>
       </c>
       <c r="E24">
-        <v>-0.4631848445212151</v>
+        <v>-0.4649143112366972</v>
       </c>
       <c r="F24">
-        <v>-0.4583123920064496</v>
+        <v>-0.4598378851589139</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1147,16 +1150,16 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>-0.008049548748339691</v>
+        <v>-0.07375912651077385</v>
       </c>
       <c r="D25">
-        <v>-0.1367150094869787</v>
+        <v>-0.2060538789753779</v>
       </c>
       <c r="E25">
-        <v>-0.2228711355610458</v>
+        <v>-0.3229522624616094</v>
       </c>
       <c r="F25">
-        <v>-0.2503571003361109</v>
+        <v>-0.3480870985255832</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1167,16 +1170,16 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>0.18597359778755</v>
+        <v>0.1635886646386041</v>
       </c>
       <c r="D26">
-        <v>-0.1200186609180992</v>
+        <v>-0.1298100406345151</v>
       </c>
       <c r="E26">
-        <v>-0.2536385974721507</v>
+        <v>-0.2529558725320987</v>
       </c>
       <c r="F26">
-        <v>-0.2788336642711783</v>
+        <v>-0.2704579592433345</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1187,16 +1190,16 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>0.1237044123710425</v>
+        <v>0.1451731328516913</v>
       </c>
       <c r="D27">
-        <v>-0.1974116010227292</v>
+        <v>-0.1605934232337294</v>
       </c>
       <c r="E27">
-        <v>-0.3249683146952079</v>
+        <v>-0.2899745649001111</v>
       </c>
       <c r="F27">
-        <v>-0.3172110651747633</v>
+        <v>-0.2840679419805431</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1207,16 +1210,16 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>0.2381551486009151</v>
+        <v>0.2502016317620343</v>
       </c>
       <c r="D28">
-        <v>-0.0006800792813243454</v>
+        <v>0.009146465515394588</v>
       </c>
       <c r="E28">
-        <v>-0.2175498483502563</v>
+        <v>-0.2157639727136706</v>
       </c>
       <c r="F28">
-        <v>-0.2125030250146212</v>
+        <v>-0.2031035549481878</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1227,16 +1230,16 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>0.3349532585847625</v>
+        <v>0.3788116809931627</v>
       </c>
       <c r="D29">
-        <v>0.05336838309763601</v>
+        <v>0.1081517397305373</v>
       </c>
       <c r="E29">
-        <v>-0.1395764858019244</v>
+        <v>-0.09681518541867341</v>
       </c>
       <c r="F29">
-        <v>-0.249441153677054</v>
+        <v>-0.2011452320868896</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1247,16 +1250,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>-0.4647559290857915</v>
+        <v>-0.4265721499818758</v>
       </c>
       <c r="D30">
-        <v>-0.4987814853391732</v>
+        <v>-0.4539668555309925</v>
       </c>
       <c r="E30">
-        <v>-0.4666576418282596</v>
+        <v>-0.4182453912192404</v>
       </c>
       <c r="F30">
-        <v>-0.4455509695066996</v>
+        <v>-0.4218440316327158</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1267,7 +1270,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>-0.1753567983172218</v>
+        <v>-0.1851325374639357</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1278,16 +1281,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>0.135061761612136</v>
+        <v>0.1055542404693779</v>
       </c>
       <c r="D32">
-        <v>-0.2368040363023692</v>
+        <v>-0.2693669172397956</v>
       </c>
       <c r="E32">
-        <v>-0.3952631911689382</v>
+        <v>-0.4204658364995845</v>
       </c>
       <c r="F32">
-        <v>-0.3153435005050688</v>
+        <v>-0.3528263091118075</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1298,10 +1301,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>-0.1021422331375559</v>
+        <v>-0.1270351968722054</v>
       </c>
       <c r="D33">
-        <v>-0.4495282767904777</v>
+        <v>-0.4836015112534395</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1312,16 +1315,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>-0.07543828373366389</v>
+        <v>-0.07040842182419457</v>
       </c>
       <c r="D34">
-        <v>-0.3642433947113934</v>
+        <v>-0.3746910548093291</v>
       </c>
       <c r="E34">
-        <v>-0.4545320675187658</v>
+        <v>-0.477121727728497</v>
       </c>
       <c r="F34">
-        <v>-0.3768009957813702</v>
+        <v>-0.4087691414486641</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1332,7 +1335,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>-0.2105758377011795</v>
+        <v>-0.1903681153716323</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1343,7 +1346,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>-0.207416589664629</v>
+        <v>-0.2857834441322652</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1354,7 +1357,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>-0.4986258549625482</v>
+        <v>-0.2265922249819146</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1365,7 +1368,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>-0.2213205704392623</v>
+        <v>-0.2265922249819146</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1376,7 +1379,13 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>-0.2213205704392623</v>
+        <v>0.220106409963086</v>
+      </c>
+      <c r="D39">
+        <v>-0.2711133859319432</v>
+      </c>
+      <c r="F39">
+        <v>-0.4955023478656618</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1387,13 +1396,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>0.2328709151181343</v>
-      </c>
-      <c r="D40">
-        <v>-0.2627099745013283</v>
-      </c>
-      <c r="F40">
-        <v>-0.4954587665717967</v>
+        <v>-0.4773418182451842</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1404,7 +1407,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>-0.4975570115438378</v>
+        <v>0.1653261562834838</v>
+      </c>
+      <c r="D41">
+        <v>-0.3184539741200257</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1415,10 +1421,16 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>0.2136432106477168</v>
+        <v>0.1959808358605223</v>
       </c>
       <c r="D42">
-        <v>-0.2950334394849239</v>
+        <v>-0.2031149162743352</v>
+      </c>
+      <c r="E42">
+        <v>-0.4104665786923392</v>
+      </c>
+      <c r="F42">
+        <v>-0.4222694693447349</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1429,16 +1441,13 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>0.196519217676026</v>
+        <v>-0.1469491224567791</v>
       </c>
       <c r="D43">
-        <v>-0.2103415475801034</v>
-      </c>
-      <c r="E43">
-        <v>-0.4209358472344119</v>
+        <v>-0.4253341222124321</v>
       </c>
       <c r="F43">
-        <v>-0.4335845594839081</v>
+        <v>-0.4886126588297502</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1449,10 +1458,16 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>-0.1429971186640538</v>
+        <v>-0.03300799913086312</v>
       </c>
       <c r="D44">
-        <v>-0.4404824480744316</v>
+        <v>-0.3220672272976241</v>
+      </c>
+      <c r="E44">
+        <v>-0.4372206587274036</v>
+      </c>
+      <c r="F44">
+        <v>-0.4330890338838515</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1463,13 +1478,16 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>0.04785386610937125</v>
+        <v>-0.4045634835787229</v>
       </c>
       <c r="D45">
-        <v>-0.3488723544485576</v>
+        <v>-0.4728292477339596</v>
+      </c>
+      <c r="E45">
+        <v>-0.4526048382633904</v>
       </c>
       <c r="F45">
-        <v>-0.4758059163029048</v>
+        <v>-0.4521591494457052</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1480,13 +1498,16 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>-0.4399087064029455</v>
+        <v>0.1039817397529747</v>
+      </c>
+      <c r="D46">
+        <v>-0.2564316766724793</v>
       </c>
       <c r="E46">
-        <v>-0.4761961067038283</v>
+        <v>-0.4455630749506462</v>
       </c>
       <c r="F46">
-        <v>-0.4499452990798454</v>
+        <v>-0.3799654024852231</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1497,16 +1518,16 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>0.1296318469364615</v>
+        <v>-0.4480627042636421</v>
       </c>
       <c r="D47">
-        <v>-0.2336068373212906</v>
+        <v>-0.45322319095189</v>
       </c>
       <c r="E47">
-        <v>-0.4062640463276745</v>
+        <v>-0.3991280658474177</v>
       </c>
       <c r="F47">
-        <v>-0.3543575676330037</v>
+        <v>-0.3896294912108437</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1517,16 +1538,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>-0.4464791320520665</v>
-      </c>
-      <c r="D48">
-        <v>-0.4511177005099086</v>
-      </c>
-      <c r="E48">
-        <v>-0.3948798669098901</v>
-      </c>
-      <c r="F48">
-        <v>-0.3848233166190496</v>
+        <v>-0.2904208283867825</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1537,7 +1549,13 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>-0.3019861153795143</v>
+        <v>-0.4744008988387753</v>
+      </c>
+      <c r="E49">
+        <v>-0.472690814523184</v>
+      </c>
+      <c r="F49">
+        <v>-0.4561140013202361</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1548,13 +1566,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>-0.4528068469373975</v>
-      </c>
-      <c r="E50">
-        <v>-0.4597048383751316</v>
-      </c>
-      <c r="F50">
-        <v>-0.4524096553260383</v>
+        <v>-0.3481275387498484</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1565,7 +1577,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>-0.3632417719433857</v>
+        <v>-0.2104324082959562</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1576,7 +1588,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>-0.1984150651433266</v>
+        <v>-0.347504694159419</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1587,7 +1599,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>-0.3429513098845722</v>
+        <v>-0.3625969365937638</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1598,7 +1610,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>-0.3505733926693451</v>
+        <v>-0.3838299036280935</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1609,7 +1621,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>-0.3942635409310686</v>
+        <v>-0.382242498490285</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1620,7 +1632,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>-0.3885593563842103</v>
+        <v>-0.1822301034923241</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1631,7 +1643,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>-0.1691130855450161</v>
+        <v>-0.3594220841913819</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1642,7 +1654,16 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>-0.3479416244802402</v>
+        <v>0.03014039624169178</v>
+      </c>
+      <c r="D58">
+        <v>-0.3077749169594753</v>
+      </c>
+      <c r="E58">
+        <v>-0.4554102215963299</v>
+      </c>
+      <c r="F58">
+        <v>-0.4256127839498827</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1653,16 +1674,16 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>0.03473082906974935</v>
+        <v>-0.4098369584072299</v>
       </c>
       <c r="D59">
-        <v>-0.2994396143815214</v>
+        <v>-0.4555834705075725</v>
       </c>
       <c r="E59">
-        <v>-0.4387351529409921</v>
+        <v>-0.4197586384925205</v>
       </c>
       <c r="F59">
-        <v>-0.4087264453326695</v>
+        <v>-0.4343823020059698</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1673,16 +1694,16 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>-0.3966624873828701</v>
+        <v>-0.2745983011443968</v>
       </c>
       <c r="D60">
-        <v>-0.4286965382514786</v>
+        <v>-0.1611997582365363</v>
       </c>
       <c r="E60">
-        <v>-0.3850813035116341</v>
+        <v>-0.07695038890754793</v>
       </c>
       <c r="F60">
-        <v>-0.3988005274451319</v>
+        <v>-0.1529689030345127</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1693,16 +1714,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>-0.2708006677394302</v>
+        <v>-0.1092054379388752</v>
       </c>
       <c r="D61">
-        <v>-0.168235520497138</v>
-      </c>
-      <c r="E61">
-        <v>-0.09744206561740544</v>
-      </c>
-      <c r="F61">
-        <v>-0.1559218638793623</v>
+        <v>-0.4510660691376462</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1713,10 +1728,16 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>-0.1016100965995237</v>
+        <v>0.06467594581078202</v>
       </c>
       <c r="D62">
-        <v>-0.4451128315025339</v>
+        <v>-0.182012424316617</v>
+      </c>
+      <c r="E62">
+        <v>-0.2619566056124662</v>
+      </c>
+      <c r="F62">
+        <v>-0.2094545958164958</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1727,16 +1748,16 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>0.05901433266902293</v>
+        <v>-0.1548205815971598</v>
       </c>
       <c r="D63">
-        <v>-0.06159886812240477</v>
+        <v>-0.3665891219130988</v>
       </c>
       <c r="E63">
-        <v>-0.04190072214942197</v>
+        <v>-0.4553934552484293</v>
       </c>
       <c r="F63">
-        <v>-0.1301093622571042</v>
+        <v>-0.4517457059181851</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1747,16 +1768,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>-0.02077532619928336</v>
+        <v>-0.09033548168095794</v>
       </c>
       <c r="D64">
-        <v>-0.3119676882198937</v>
-      </c>
-      <c r="E64">
-        <v>-0.4548268933775566</v>
-      </c>
-      <c r="F64">
-        <v>-0.4101158274566001</v>
+        <v>-0.4975740486934457</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1767,10 +1782,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>-0.09134800493459941</v>
-      </c>
-      <c r="D65">
-        <v>-0.4959614517581958</v>
+        <v>-0.3664374625697477</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1781,7 +1793,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>-0.3670055982836068</v>
+        <v>-0.2853893666283975</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1792,7 +1804,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>-0.2634424043821597</v>
+        <v>-0.473176931321848</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1803,7 +1815,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>-0.4727570255952377</v>
+        <v>-0.2885406213141907</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1814,7 +1826,13 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>-0.272001880352208</v>
+        <v>-0.4984247432953109</v>
+      </c>
+      <c r="E69">
+        <v>-0.4433960776547871</v>
+      </c>
+      <c r="F69">
+        <v>-0.4291708555593787</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1825,16 +1843,16 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>-0.4845839312210836</v>
+        <v>0.008405606149934445</v>
       </c>
       <c r="D70">
-        <v>-0.4983134955362705</v>
+        <v>-0.1707676928747044</v>
       </c>
       <c r="E70">
-        <v>-0.4460732644850968</v>
+        <v>-0.2176874358430482</v>
       </c>
       <c r="F70">
-        <v>-0.4350276347907145</v>
+        <v>-0.2094559726300542</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1845,16 +1863,16 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>0.01456452307044435</v>
+        <v>0.08317334892064834</v>
       </c>
       <c r="D71">
-        <v>-0.1713143571254502</v>
+        <v>-0.179479505396383</v>
       </c>
       <c r="E71">
-        <v>-0.2225904129847052</v>
+        <v>-0.2993695212851337</v>
       </c>
       <c r="F71">
-        <v>-0.2135187075901914</v>
+        <v>-0.3537956431133345</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1865,16 +1883,16 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>0.06246190654843093</v>
+        <v>0.2336382314150332</v>
       </c>
       <c r="D72">
-        <v>-0.1981983662703126</v>
+        <v>0.01028637308924775</v>
       </c>
       <c r="E72">
-        <v>-0.3139979048017295</v>
+        <v>-0.1219436685140713</v>
       </c>
       <c r="F72">
-        <v>-0.3629107135728855</v>
+        <v>-0.2415937295513154</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1885,16 +1903,16 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>0.1896500779261776</v>
+        <v>0.369989104655388</v>
       </c>
       <c r="D73">
-        <v>0.002612536819551082</v>
+        <v>-0.006547848039930415</v>
       </c>
       <c r="E73">
-        <v>-0.1132853600677843</v>
+        <v>-0.2244071569915178</v>
       </c>
       <c r="F73">
-        <v>-0.1992826362556439</v>
+        <v>-0.2447033972343189</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1905,16 +1923,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>0.3773333857706584</v>
-      </c>
-      <c r="D74">
-        <v>0.02625196913496005</v>
-      </c>
-      <c r="E74">
-        <v>-0.1968226059689033</v>
-      </c>
-      <c r="F74">
-        <v>-0.2234046847680668</v>
+        <v>-0.3189560302308844</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1925,7 +1934,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>-0.3119717411749695</v>
+        <v>-0.3632720469977235</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1936,7 +1945,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>-0.3600352940207965</v>
+        <v>-0.4262791031195498</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1947,7 +1956,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>-0.4333886985691264</v>
+        <v>-0.3783987722668548</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1958,7 +1967,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>-0.3531426624059388</v>
+        <v>-0.4819674893325448</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1969,13 +1978,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>-0.2431949995886313</v>
-      </c>
-      <c r="D79">
-        <v>-0.459469440149796</v>
-      </c>
-      <c r="F79">
-        <v>-0.4969437627254271</v>
+        <v>-0.2913984738079942</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1986,16 +1989,16 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>-0.04412693457249178</v>
+        <v>-0.06970136011965496</v>
       </c>
       <c r="D80">
-        <v>-0.3613914660830131</v>
+        <v>-0.3745880974002399</v>
       </c>
       <c r="E80">
-        <v>-0.487647652562284</v>
+        <v>-0.4902088749105446</v>
       </c>
       <c r="F80">
-        <v>-0.444004736982319</v>
+        <v>-0.4491788664487419</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2006,7 +2009,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>-0.3531426624059388</v>
+        <v>-0.3783987722668548</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2017,16 +2020,16 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>0.1174930664091075</v>
+        <v>0.03491856892695012</v>
       </c>
       <c r="D82">
-        <v>-0.1909823459397437</v>
+        <v>-0.2366363107234032</v>
       </c>
       <c r="E82">
-        <v>-0.3462275019794253</v>
+        <v>-0.3447744092595696</v>
       </c>
       <c r="F82">
-        <v>-0.3052540195672103</v>
+        <v>-0.3152610412925369</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2037,13 +2040,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>-0.1710791172024415</v>
+        <v>-0.1877578867441073</v>
       </c>
       <c r="D83">
-        <v>-0.4399620831170008</v>
-      </c>
-      <c r="F83">
-        <v>-0.4950707645381137</v>
+        <v>-0.4733879462303976</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2054,16 +2054,16 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>-0.4141863307750264</v>
+        <v>-0.4076247775141706</v>
       </c>
       <c r="D84">
-        <v>-0.4022061577921998</v>
+        <v>-0.3935957613614836</v>
       </c>
       <c r="E84">
-        <v>-0.3468106886473026</v>
+        <v>-0.3385865945628492</v>
       </c>
       <c r="F84">
-        <v>-0.3376829888999436</v>
+        <v>-0.3295653895124094</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2074,16 +2074,16 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>-0.4409448553384315</v>
+        <v>-0.4424624496072387</v>
       </c>
       <c r="D85">
-        <v>-0.440758821493398</v>
+        <v>-0.4424060534964775</v>
       </c>
       <c r="E85">
-        <v>-0.3868700354542928</v>
+        <v>-0.3880043834204752</v>
       </c>
       <c r="F85">
-        <v>-0.377539441799234</v>
+        <v>-0.3766538323219871</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2094,13 +2094,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>-0.4319474825512455</v>
-      </c>
-      <c r="E86">
-        <v>-0.4965553179672429</v>
-      </c>
-      <c r="F86">
-        <v>-0.4733886345924703</v>
+        <v>-0.4359708971099507</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2111,10 +2105,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>-0.4574342572450332</v>
+        <v>-0.4719043824742068</v>
       </c>
       <c r="F87">
-        <v>-0.4912404064524604</v>
+        <v>-0.4824527650933209</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2125,7 +2119,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>-0.4630213108239714</v>
+        <v>-0.4733137140160126</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2136,13 +2130,16 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>-0.4964299209395453</v>
+        <v>-0.4571315228832498</v>
+      </c>
+      <c r="D89">
+        <v>-0.4676875793420525</v>
       </c>
       <c r="E89">
-        <v>-0.477572385340218</v>
+        <v>-0.410195773569377</v>
       </c>
       <c r="F89">
-        <v>-0.4684031885775773</v>
+        <v>-0.4054493291698301</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2152,14 +2149,14 @@
       <c r="B90" t="s">
         <v>93</v>
       </c>
-      <c r="D90">
-        <v>-0.4938568376278145</v>
+      <c r="C90">
+        <v>-0.4847372618539232</v>
       </c>
       <c r="E90">
-        <v>-0.4236859619855775</v>
+        <v>-0.4961034234092346</v>
       </c>
       <c r="F90">
-        <v>-0.4814316576078645</v>
+        <v>-0.4836710243626615</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2169,14 +2166,14 @@
       <c r="B91" t="s">
         <v>94</v>
       </c>
-      <c r="D91">
-        <v>0.2858947922590056</v>
+      <c r="C91">
+        <v>-0.4942492296159312</v>
       </c>
       <c r="E91">
-        <v>0.04517490509187547</v>
+        <v>-0.4846691832268048</v>
       </c>
       <c r="F91">
-        <v>0.07491408739387083</v>
+        <v>-0.4772767295140488</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2187,13 +2184,13 @@
         <v>95</v>
       </c>
       <c r="D92">
-        <v>0.3242282205135024</v>
+        <v>-0.479841788314778</v>
       </c>
       <c r="E92">
-        <v>0.0759263286330342</v>
+        <v>-0.3954098890522515</v>
       </c>
       <c r="F92">
-        <v>0.2182097220601758</v>
+        <v>-0.4491237145727958</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2204,13 +2201,13 @@
         <v>96</v>
       </c>
       <c r="D93">
-        <v>0.2186162268988047</v>
+        <v>0.2759889642381233</v>
       </c>
       <c r="E93">
-        <v>-0.00582025645762451</v>
+        <v>0.0394831722903654</v>
       </c>
       <c r="F93">
-        <v>-0.01290022401446422</v>
+        <v>0.06632031606703301</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2221,13 +2218,13 @@
         <v>97</v>
       </c>
       <c r="D94">
-        <v>0.3338756175007871</v>
+        <v>0.3574571438754544</v>
       </c>
       <c r="E94">
-        <v>0.1125626057304834</v>
+        <v>0.1098367543084969</v>
       </c>
       <c r="F94">
-        <v>0.1126694739442977</v>
+        <v>0.2673015431006983</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2238,13 +2235,13 @@
         <v>98</v>
       </c>
       <c r="D95">
-        <v>0.33271471587803</v>
+        <v>0.1693807164330168</v>
       </c>
       <c r="E95">
-        <v>0.1278520282316783</v>
+        <v>-0.1074513421846946</v>
       </c>
       <c r="F95">
-        <v>0.002399499916820299</v>
+        <v>-0.1028594730777217</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2254,11 +2251,14 @@
       <c r="B96" t="s">
         <v>99</v>
       </c>
+      <c r="D96">
+        <v>0.3258692270047091</v>
+      </c>
       <c r="E96">
-        <v>0.4463510518016428</v>
+        <v>0.1036081583894686</v>
       </c>
       <c r="F96">
-        <v>0.3438637475607192</v>
+        <v>0.07093705866438545</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2268,11 +2268,14 @@
       <c r="B97" t="s">
         <v>100</v>
       </c>
+      <c r="D97">
+        <v>0.3319262286160666</v>
+      </c>
       <c r="E97">
-        <v>0.3313376951837507</v>
+        <v>0.1277475073709935</v>
       </c>
       <c r="F97">
-        <v>0.4357275691820823</v>
+        <v>0.004522485695028004</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2283,10 +2286,10 @@
         <v>101</v>
       </c>
       <c r="E98">
-        <v>0.4476601445358002</v>
+        <v>0.4667898827212849</v>
       </c>
       <c r="F98">
-        <v>0.3054839753980894</v>
+        <v>0.3660556332873177</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2297,10 +2300,10 @@
         <v>102</v>
       </c>
       <c r="E99">
-        <v>0.4995503371427528</v>
+        <v>0.3902344252628136</v>
       </c>
       <c r="F99">
-        <v>0.3998882424345206</v>
+        <v>0.4651304566333698</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2311,10 +2314,10 @@
         <v>103</v>
       </c>
       <c r="E100">
-        <v>0.4789087700440692</v>
+        <v>0.445166210587556</v>
       </c>
       <c r="F100">
-        <v>0.3888091385148889</v>
+        <v>0.3102219889985712</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2325,10 +2328,10 @@
         <v>104</v>
       </c>
       <c r="E101">
-        <v>0.3923457508407083</v>
+        <v>0.4919711234301926</v>
       </c>
       <c r="F101">
-        <v>0.3355902874135379</v>
+        <v>0.3957498609531522</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2339,10 +2342,10 @@
         <v>105</v>
       </c>
       <c r="E102">
-        <v>-0.4607001500150318</v>
+        <v>0.4340827587784579</v>
       </c>
       <c r="F102">
-        <v>-0.4436634375778132</v>
+        <v>0.3365989469439529</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2352,8 +2355,11 @@
       <c r="B103" t="s">
         <v>106</v>
       </c>
+      <c r="E103">
+        <v>0.4107015977394091</v>
+      </c>
       <c r="F103">
-        <v>0.4517677189673752</v>
+        <v>0.3775913899353339</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2364,7 +2370,7 @@
         <v>107</v>
       </c>
       <c r="F104">
-        <v>0.4322645985649853</v>
+        <v>0.4495854524688372</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2375,7 +2381,7 @@
         <v>108</v>
       </c>
       <c r="F105">
-        <v>0.4411613116008565</v>
+        <v>0.4020962974503079</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2386,7 +2392,7 @@
         <v>109</v>
       </c>
       <c r="F106">
-        <v>0.4613759198353449</v>
+        <v>0.4442430085769319</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2397,7 +2403,7 @@
         <v>110</v>
       </c>
       <c r="F107">
-        <v>0.478886004791966</v>
+        <v>0.4492730024742667</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2408,7 +2414,7 @@
         <v>111</v>
       </c>
       <c r="F108">
-        <v>0.4455375950744442</v>
+        <v>0.4532605001352498</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2419,7 +2425,18 @@
         <v>112</v>
       </c>
       <c r="F109">
-        <v>0.4359921314592379</v>
+        <v>0.4032478739984989</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="F110">
+        <v>0.3881605752640664</v>
       </c>
     </row>
   </sheetData>
